--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21BCFFF-9332-4643-A39F-01A149ED8CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B32763D-96EC-4104-BB90-E8BD51559914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -58,25 +58,48 @@
     <t>##</t>
   </si>
   <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-  </si>
-  <si>
-    <t>枚举名</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>注释</t>
+    <t>Stats.StatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stats.VitalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -519,30 +542,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="99.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B32763D-96EC-4104-BB90-E8BD51559914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC03CA-5EA7-491C-B997-57AEEA4932E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -580,13 +584,18 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC03CA-5EA7-491C-B997-57AEEA4932E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDDEFC-0968-45D8-AEC9-49B699DA42B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,38 @@
   </si>
   <si>
     <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legendary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -599,6 +631,48 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDDEFC-0968-45D8-AEC9-49B699DA42B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915CBA24-804C-4B53-8337-4C81C8E0E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -643,33 +651,43 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915CBA24-804C-4B53-8337-4C81C8E0E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAB3E9-44EE-4D82-AA00-A879B8469683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -629,65 +633,70 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H8" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="b">
+      <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H11" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Tools/Luban/Datas/_Enums.xlsx
+++ b/Tools/Luban/Datas/_Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAB3E9-44EE-4D82-AA00-A879B8469683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A017C0-2A5B-44CB-8E98-CB135ABD0324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -58,22 +58,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>Stats.StatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stats.VitalType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,54 +83,6 @@
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items.ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items.Rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legendary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Luck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -595,109 +531,25 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
